--- a/Документы/Экономика.xlsx
+++ b/Документы/Экономика.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\ЕКБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F513721-46DD-41EA-A17F-3EBEFAAA4293}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8490D05D-17E4-4FB0-ABFB-EC796C50645C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="15180" xr2:uid="{F785AD06-D45A-4FCE-AE7D-6861B74351EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Затраты</t>
   </si>
@@ -81,9 +82,6 @@
     <t>₽/Год</t>
   </si>
   <si>
-    <t>Платный туалет</t>
-  </si>
-  <si>
     <t>Помощь с адаптацией под судно заказчика</t>
   </si>
   <si>
@@ -99,7 +97,43 @@
     <t>Стоимость работ за 1 км^2, ₽/Год</t>
   </si>
   <si>
-    <t>При обработке 500 км^2 / Год</t>
+    <t>Показатель</t>
+  </si>
+  <si>
+    <t>Вариант 1 (заказчик предоставляет ортофотоплан)</t>
+  </si>
+  <si>
+    <t>Вариант 2 (исполнитель выполняет съёмку)</t>
+  </si>
+  <si>
+    <t>Стоимость услуг, ₽/км²</t>
+  </si>
+  <si>
+    <t>Площадь, км²</t>
+  </si>
+  <si>
+    <t>Выручка, ₽</t>
+  </si>
+  <si>
+    <t>Затраты, ₽</t>
+  </si>
+  <si>
+    <t>Прибыль, ₽</t>
+  </si>
+  <si>
+    <t>ROI</t>
+  </si>
+  <si>
+    <t>Срок окупаемости, лет</t>
+  </si>
+  <si>
+    <t>Амортизация, ₽/год</t>
+  </si>
+  <si>
+    <t>3 года</t>
+  </si>
+  <si>
+    <t>Заказ ортофотоплан у заказчика</t>
   </si>
 </sst>
 </file>
@@ -163,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -187,6 +221,9 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -196,8 +233,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C8B71C-6D59-47D4-A1E0-692DA7B73B9A}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,17 +576,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
@@ -595,10 +641,10 @@
       <c r="C8" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
@@ -611,7 +657,7 @@
         <v>200000</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -629,8 +675,8 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <f>4*80000*12</f>
-        <v>3840000</v>
+        <f>4*100000*12</f>
+        <v>4800000</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -668,7 +714,7 @@
       </c>
       <c r="B19" s="6">
         <f>SUM(B12:B17)</f>
-        <v>4652000</v>
+        <v>5612000</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>17</v>
@@ -678,59 +724,57 @@
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="6">
         <v>100000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="6">
-        <v>650</v>
-      </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="10"/>
+      <c r="A25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="6">
         <v>15000</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="6">
         <v>30000</v>
       </c>
-      <c r="C27" s="12"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="6">
+        <v>15000</v>
+      </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -746,8 +790,7 @@
       <c r="C32" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C26:C27"/>
+  <mergeCells count="5">
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A1:C1"/>
@@ -757,4 +800,147 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD91902-C05E-4B50-9486-790273F0DBFE}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:B49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="13">
+        <f>Лист1!B26</f>
+        <v>15000</v>
+      </c>
+      <c r="C2" s="13">
+        <f>Лист1!B27</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="16">
+        <v>500</v>
+      </c>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="13">
+        <f>Лист2!B2*Лист2!B3</f>
+        <v>7500000</v>
+      </c>
+      <c r="C4" s="13">
+        <f>Лист2!C2*Лист2!B3</f>
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="15">
+        <f>Лист1!B7/3</f>
+        <v>286666.66666666669</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="13">
+        <f>Лист1!B19+Лист2!B5</f>
+        <v>5898666.666666667</v>
+      </c>
+      <c r="C6" s="13">
+        <f>Лист1!B19+Лист2!B5+Лист1!B28*Лист2!B3</f>
+        <v>13398666.666666668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="13">
+        <f>B4-B6</f>
+        <v>1601333.333333333</v>
+      </c>
+      <c r="C7" s="13">
+        <f>C4-C6</f>
+        <v>1601333.3333333321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="13">
+        <f>B7/Лист1!B7</f>
+        <v>1.8620155038759687</v>
+      </c>
+      <c r="C8" s="13">
+        <f>C7/Лист1!B7</f>
+        <v>1.8620155038759676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1">
+        <f>Лист1!B7/Лист2!B7</f>
+        <v>0.53705245628642806</v>
+      </c>
+      <c r="C9" s="1">
+        <f>Лист1!B7/Лист2!C7</f>
+        <v>0.53705245628642839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Документы/Экономика.xlsx
+++ b/Документы/Экономика.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\ЕКБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8490D05D-17E4-4FB0-ABFB-EC796C50645C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16B43A0-17EF-4D49-88B4-D76CB4894C24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="15180" xr2:uid="{F785AD06-D45A-4FCE-AE7D-6861B74351EA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="15180" activeTab="1" xr2:uid="{F785AD06-D45A-4FCE-AE7D-6861B74351EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -224,6 +224,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -233,18 +236,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -561,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C8B71C-6D59-47D4-A1E0-692DA7B73B9A}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -576,17 +587,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
@@ -641,10 +652,10 @@
       <c r="C8" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
@@ -724,10 +735,10 @@
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -745,10 +756,10 @@
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
@@ -806,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD91902-C05E-4B50-9486-790273F0DBFE}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,108 +844,115 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="16">
         <f>Лист1!B26</f>
         <v>15000</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="16">
         <f>Лист1!B27</f>
         <v>30000</v>
       </c>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="18">
         <v>500</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="16">
         <f>Лист2!B2*Лист2!B3</f>
         <v>7500000</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="16">
         <f>Лист2!C2*Лист2!B3</f>
         <v>15000000</v>
       </c>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="19">
         <f>Лист1!B7/3</f>
         <v>286666.66666666669</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="16">
         <f>Лист1!B19+Лист2!B5</f>
         <v>5898666.666666667</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="16">
         <f>Лист1!B19+Лист2!B5+Лист1!B28*Лист2!B3</f>
         <v>13398666.666666668</v>
       </c>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="16">
         <f>B4-B6</f>
         <v>1601333.333333333</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="16">
         <f>C4-C6</f>
         <v>1601333.3333333321</v>
       </c>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="20">
         <f>B7/Лист1!B7</f>
         <v>1.8620155038759687</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="20">
         <f>C7/Лист1!B7</f>
         <v>1.8620155038759676</v>
       </c>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="21">
         <f>Лист1!B7/Лист2!B7</f>
         <v>0.53705245628642806</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="21">
         <f>Лист1!B7/Лист2!C7</f>
         <v>0.53705245628642839</v>
       </c>
+      <c r="D9" s="17"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -942,5 +960,6 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Документы/Экономика.xlsx
+++ b/Документы/Экономика.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\ЕКБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16B43A0-17EF-4D49-88B4-D76CB4894C24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D753143A-2F64-4C46-9573-8E7B052C386C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="15180" activeTab="1" xr2:uid="{F785AD06-D45A-4FCE-AE7D-6861B74351EA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="15180" xr2:uid="{F785AD06-D45A-4FCE-AE7D-6861B74351EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Затраты</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Заказ ортофотоплан у заказчика</t>
+  </si>
+  <si>
+    <t>Платный туалет</t>
   </si>
 </sst>
 </file>
@@ -572,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C8B71C-6D59-47D4-A1E0-692DA7B73B9A}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,6 +753,12 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="6">
+        <v>650</v>
+      </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -817,7 +826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD91902-C05E-4B50-9486-790273F0DBFE}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
